--- a/data/shapefilekarteringinfo.xlsx
+++ b/data/shapefilekarteringinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jordydelange\git\veg2hab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A09FB9-44FF-49F2-9253-301BF7AFDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7B5B0-D003-48F3-BAE5-0A03B2A533C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24075" yWindow="1860" windowWidth="26280" windowHeight="19110" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="215">
   <si>
     <t>provincie</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Drouwenerzand_2020</t>
   </si>
   <si>
-    <t>/DR Extra/2020_Drouwenerzand/HDL_Drouwenerzand_2020.shp</t>
-  </si>
-  <si>
     <t>NM_Mantingerbos_2015</t>
   </si>
   <si>
@@ -284,12 +281,6 @@
     <t>Friesland</t>
   </si>
   <si>
-    <t>Alde_Feanen_2012</t>
-  </si>
-  <si>
-    <t>./FR/Alde_Feanen/Alde_Feanen_2012/Alde Feanen oostkant/19q_vegetatie_lifeproject.shp</t>
-  </si>
-  <si>
     <t>Mandefjild_2015</t>
   </si>
   <si>
@@ -375,6 +366,321 @@
   </si>
   <si>
     <t>datum</t>
+  </si>
+  <si>
+    <t>./DR Extra/2020_Drouwenerzand/HDL_Drouwenerzand_2020.shp</t>
+  </si>
+  <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
+    <t>CODE_VvN</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CODE_SBB</t>
+  </si>
+  <si>
+    <t>JAAR / WEEK_NR</t>
+  </si>
+  <si>
+    <t>OBJECTID_1</t>
+  </si>
+  <si>
+    <t>vegtype_mode</t>
+  </si>
+  <si>
+    <t>perc_col</t>
+  </si>
+  <si>
+    <t>F1_VvN+F2_VvN+F3_VvN+F4_VvN</t>
+  </si>
+  <si>
+    <t>F1_SBB+F2_SBB+F3_SBB+F4_SBB</t>
+  </si>
+  <si>
+    <t>F1_Perc+F2_Perc+F3_Perc+F4_Perc</t>
+  </si>
+  <si>
+    <t>DATUM</t>
+  </si>
+  <si>
+    <t>OPMERKING</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Dubbel checken dat single_col hier juist is</t>
+  </si>
+  <si>
+    <t>VvN1+VvN2</t>
+  </si>
+  <si>
+    <t>SBBTYPE1+SBBTYPE2</t>
+  </si>
+  <si>
+    <t>Jaar_van_m</t>
+  </si>
+  <si>
+    <t>single_col_VvN</t>
+  </si>
+  <si>
+    <t>single_col_SBB</t>
+  </si>
+  <si>
+    <t>multi_col_beide</t>
+  </si>
+  <si>
+    <t>Bijgevoegde tabel vertaalt naar beide</t>
+  </si>
+  <si>
+    <t>SBBCODE</t>
+  </si>
+  <si>
+    <t>In .shp zit ook SBB_CODE met soms nog extra/andere codes; is dit een 2e sbbcode kolom om mee te nemen?</t>
+  </si>
+  <si>
+    <t>ELMID</t>
+  </si>
+  <si>
+    <t>multi_col_SBB</t>
+  </si>
+  <si>
+    <t>SBB1+SBB2</t>
+  </si>
+  <si>
+    <t>In typologiedocument lijkt SBB1/SBB2 niet een 50% SBB1/50% SBB2 maar meer een soort het is beide. Is multi_col goed hier?</t>
+  </si>
+  <si>
+    <t>opmerkinge</t>
+  </si>
+  <si>
+    <t>JAAR</t>
+  </si>
+  <si>
+    <t>VVN_dom</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>VVN_dom volgt de tabel, maar CODE_VvN bestaat ook en bevat enkel de eerste van VVN_dom lijkt. De tabel hier lijkt ook te beschrijven als 2 vegtypen, niet als een complex</t>
+  </si>
+  <si>
+    <t>vlakken_EL</t>
+  </si>
+  <si>
+    <t>SbbType_Co</t>
+  </si>
+  <si>
+    <t>vlakken_Da</t>
+  </si>
+  <si>
+    <t>Jaar</t>
+  </si>
+  <si>
+    <t>single_col_beide</t>
+  </si>
+  <si>
+    <t>TYPE_SBB</t>
+  </si>
+  <si>
+    <t>TYPE_VvN</t>
+  </si>
+  <si>
+    <t>Tabel in pdf vertaalt naar SBB en VvN</t>
+  </si>
+  <si>
+    <t>Er is ook een VvNTYPE1/VvNTYPE2 in de shapefile, maar geen SBB equivalent</t>
+  </si>
+  <si>
+    <t>Vegetatietabel vertaalt naar SBB en VvN</t>
+  </si>
+  <si>
+    <t>Er is ook een CODE_VvN1/CODE_VvN2 in de shapefile, maar geen SBB equivalent</t>
+  </si>
+  <si>
+    <t>VGTYPE_VvN</t>
+  </si>
+  <si>
+    <t>Er is nog een VGTYP_VvN2 in de shapefile, maar hierover staat niets in de begeleidende bestanden. Moet dit multi_col_VvN zijn? Er is ook nog een CODE_VvN kolom gelijk lijkend aan VGTYPE_VvN.</t>
+  </si>
+  <si>
+    <t>multi_col_VvN</t>
+  </si>
+  <si>
+    <t>VvN1Eeuwe+VvN2Eeuwe</t>
+  </si>
+  <si>
+    <t>PERC_VvN_1+PERC_VvN_2</t>
+  </si>
+  <si>
+    <t>In begeleidend document wordt vertaald naar zowel sbb als vvn</t>
+  </si>
+  <si>
+    <t>SbbType</t>
+  </si>
+  <si>
+    <t>VVNCode</t>
+  </si>
+  <si>
+    <t>Datum_1</t>
+  </si>
+  <si>
+    <t>Vanalles mogelijk; 5 code_veg_# kolommen met bedekking, maar ook SbbType en SbbType2 (beide geen sbbtypen maar getallen), en ook VvN. Documentatie vertaald naar SBB en VvN en soms van 1 lokaal naar 2 SBB of VvN</t>
+  </si>
+  <si>
+    <t>opm</t>
+  </si>
+  <si>
+    <t>VVN</t>
+  </si>
+  <si>
+    <t>Enkel VvN en rVvN in de shape</t>
+  </si>
+  <si>
+    <t>NUM_SRT</t>
+  </si>
+  <si>
+    <t>Dubbel checken dat num_srt unique is. Enkel VvN in de shape</t>
+  </si>
+  <si>
+    <t>Mogelijk nog zo'n het is ssb1 en ssb2 als niet-complex</t>
+  </si>
+  <si>
+    <t>CODE_VN</t>
+  </si>
+  <si>
+    <t>Zowel SBB als V(v?)N in de shapes, geen voorkeur aangegeven in de begeleidende pdfs.</t>
+  </si>
+  <si>
+    <t>Datum klopt niet (is overal 1899-12-30)</t>
+  </si>
+  <si>
+    <t>Er zijn kolommen VvN1/2/3 (hier lijken ook niet-vvn codes in te staan, zoals B33AAZ), maar maar 1 PERC1 kolom. Ook is er een enkele CODE_VvN kolom, die lijkt wel enkel VvN te hebben.</t>
+  </si>
+  <si>
+    <t>SBBTYPE1+SBBTYPE2+SBBTYPE3</t>
+  </si>
+  <si>
+    <t>Er is ook een enkele SbbType kolom, maar aangezien er ook 3 LOCTYPE# kolommen zijn zijn complexen aannemelijk,</t>
+  </si>
+  <si>
+    <t>Element_Da</t>
+  </si>
+  <si>
+    <t>Element_Sb</t>
+  </si>
+  <si>
+    <t>SbbType_Co is ook een optie, maar deze lijkt de complexen niet meer te hebben</t>
+  </si>
+  <si>
+    <t>Enkel SBB aanwezig in shapes</t>
+  </si>
+  <si>
+    <t>Er is ook een kolom SbbType_Co met steeds enkel de eerste code</t>
+  </si>
+  <si>
+    <t>opmerking</t>
+  </si>
+  <si>
+    <t>In de documenten primair naar SBB vertaald. Er is ook een kolom Code_1 met steeds enkel de eerste in SbbType</t>
+  </si>
+  <si>
+    <t>SBB_complx</t>
+  </si>
+  <si>
+    <t>Er zijn ook kolommen SBB_ev en Code, die lijken steeds gewoon de eerste van SBB_complx te hebben</t>
+  </si>
+  <si>
+    <t>Code_1</t>
+  </si>
+  <si>
+    <t>Van complexen uit SbbType/SbbType2 en Vegtype kolommen is enkel de eerste vermeld in Code_1</t>
+  </si>
+  <si>
+    <t>VVN1+VVN2</t>
+  </si>
+  <si>
+    <t>Document vertaalt naar VvN en SBB. Hier ook weer wordt 1 lokale soms vertaald naar 2 landelijke typen. Er zijn percentagekolommen (PERC1/PERC2) maar deze lijken bij locale typologie te horen want soms zijn er in VVN1/2/SBB1/2 complexen die in lokale typologie er niet zijn</t>
+  </si>
+  <si>
+    <t>In documentatie wordt primair naar SBB vertaald</t>
+  </si>
+  <si>
+    <t>SBB_type1+SBB_type2+SBB_type3+SBB_type4+SBB_type5</t>
+  </si>
+  <si>
+    <t>PERC1+PERC2+PERC3+PERC4+PERC5</t>
+  </si>
+  <si>
+    <t>Er is ook een SbbType2 maar aangezin er geen meerdere lokale vegtype kolommen zijn heb ik enkel de eerste genomen</t>
+  </si>
+  <si>
+    <t>VvN1+VvN2+VvN3</t>
+  </si>
+  <si>
+    <t>P1+P2+P3</t>
+  </si>
+  <si>
+    <t>Ik vermoed primair SBB, maar dit staat niet in documenten. Er is ook nog een WEEK_NR kolom.</t>
+  </si>
+  <si>
+    <t>Documentatie vertaalt primair naar rVvN. Er is ook een SBB1/2/3 maar deze lijkt altijd None, ook bij geldige (r)VvN1/2/3. Er is nog een Opm2.</t>
+  </si>
+  <si>
+    <t>Opm1</t>
+  </si>
+  <si>
+    <t>VLAKNR_KRT</t>
+  </si>
+  <si>
+    <t>OPM_VELD</t>
+  </si>
+  <si>
+    <t>Documentatie vertaalt naar zowel VvN als SBB. Vertaald soms ook naar 2 landelijke typen. Voor nu pak ik enkel de eerste</t>
+  </si>
+  <si>
+    <t>F1_VVN1+F2_VVN1+F3_VVN1+F4_VVN1+F5_VVN1</t>
+  </si>
+  <si>
+    <t>F1_SBB1+F2_SBB1+F3_SBB1+F4_SBB1+F5_SBB1</t>
+  </si>
+  <si>
+    <t>F1_PERC+F2_PERC+F3_PERC+F4_PERC+F5_PERC</t>
+  </si>
+  <si>
+    <t>VLAKNR_VK</t>
+  </si>
+  <si>
+    <t>OPM</t>
+  </si>
+  <si>
+    <t>1_SBB1+2_SBB1+3_SBB1</t>
+  </si>
+  <si>
+    <t>1_VVN1+2_VVN1+3_VVN1</t>
+  </si>
+  <si>
+    <t>1_PERC+2_PERC+3_PERC</t>
+  </si>
+  <si>
+    <t>VegCode</t>
+  </si>
+  <si>
+    <t>Ik denk dat het VvN codes zijn, maar rVvN is ook mogelijk. Documentatie is hier voor zover ik zag niet duidelijk over.</t>
+  </si>
+  <si>
+    <t>SBB_type</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -398,18 +704,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,11 +724,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,598 +1061,1365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E69E7D8-E9C6-43A9-AE04-34DE441ECFDE}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" t="s">
+        <v>192</v>
+      </c>
+      <c r="J36" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+      <c r="L42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
         <v>109</v>
       </c>
-      <c r="I45" t="s">
+      <c r="G46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/shapefilekarteringinfo.xlsx
+++ b/data/shapefilekarteringinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jordydelange\git\veg2hab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707C6395-7DB6-468D-94D9-CE7B41090A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623556D4-3F4E-4642-9DCA-D25DDA0288B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20835" yWindow="0" windowWidth="30765" windowHeight="21150" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
   </bookViews>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/shapefilekarteringinfo.xlsx
+++ b/data/shapefilekarteringinfo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jordydelange\git\veg2hab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623556D4-3F4E-4642-9DCA-D25DDA0288B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDA7FD-F20C-488F-A6E9-98A4475EF0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="0" windowWidth="30765" windowHeight="21150" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="140">
   <si>
     <t>provincie</t>
   </si>
@@ -95,12 +95,6 @@
     <t>./DR/DEF_Holtingerveld2013/DEF_Holtingerveld2013.shp</t>
   </si>
   <si>
-    <t>GL_Zuidlaardermeer2019</t>
-  </si>
-  <si>
-    <t>./DR/GL_Zuidlaardermeer2019/GL_Zuidlaardermeer2019.shp</t>
-  </si>
-  <si>
     <t>HDL_De_Stroeten2016</t>
   </si>
   <si>
@@ -137,48 +131,12 @@
     <t>./DR/IFG_DrentsFrieseWold2015/IFG_Skaopedobbe2015_verbeterd_05juli2018.shp</t>
   </si>
   <si>
-    <t>NM_Fochteloerveen2013_14</t>
-  </si>
-  <si>
-    <t>./DR/NM_Fochteloerveen2013_14/NM_Fochteloerveen2013_14.shp</t>
-  </si>
-  <si>
-    <t>NM_Klencke2018</t>
-  </si>
-  <si>
-    <t>./DR/NM_Klencke2018/NM_deKlencke2018.shp</t>
-  </si>
-  <si>
-    <t>NM_Leggelderveld2020</t>
-  </si>
-  <si>
-    <t>./DR/NM_Leggelderveld2020/NM_Leggelderveld2020.shp</t>
-  </si>
-  <si>
-    <t>NM_Mantingerveld2020</t>
-  </si>
-  <si>
-    <t>./DR/NM_Mantingerveld2020/NM_Mantingerveld2020.shp</t>
-  </si>
-  <si>
     <t>NM_Mantingerweiden2010</t>
   </si>
   <si>
     <t>./DR/NM_Mantingerweiden2010/NM_Mantingerweiden2010.shp</t>
   </si>
   <si>
-    <t>NM_Norg_heiden2020</t>
-  </si>
-  <si>
-    <t>./DR/NM_Norg_heiden2020/NM_Norg_heide2020.shp</t>
-  </si>
-  <si>
-    <t>NM_NorgerBeekdal2018</t>
-  </si>
-  <si>
-    <t>./DR/NM_NorgerBeekdal2018/NM_NorgerBeekdal2018.shp</t>
-  </si>
-  <si>
     <t>Drenthe extra</t>
   </si>
   <si>
@@ -188,54 +146,12 @@
     <t>./DR/BG_Drenthe2014/Bosgroep_SNLmonitoring2014.gdb</t>
   </si>
   <si>
-    <t>NM_SBB_Fochteloerveen_randen2016</t>
-  </si>
-  <si>
-    <t>./DR/NM_SBB_Fochteloerveen_randen2016/NM_SBB_Fochteloerveen_randen2016.shp</t>
-  </si>
-  <si>
     <t>PRV_Witterdiep2021</t>
   </si>
   <si>
     <t>./DR/PRV_Witterdiep2021/PRV_Witterdiep2021.shp</t>
   </si>
   <si>
-    <t>SBB0756_Drentsche_A2009</t>
-  </si>
-  <si>
-    <t>./DR/SBB0756_Drentsche_A2009/SBB0756_DrentscheAa2009.shp</t>
-  </si>
-  <si>
-    <t>SBB0757_De_Velden2009</t>
-  </si>
-  <si>
-    <t>./DR/SBB0757_De_Velden2009/SBB0757deVelden2009.shp</t>
-  </si>
-  <si>
-    <t>SBB0763_Terhorst2009</t>
-  </si>
-  <si>
-    <t>./DR/SBB0763_Terhorst2009/SBB0763_Terhorst2009.shp</t>
-  </si>
-  <si>
-    <t>SBB0816_Norg2010</t>
-  </si>
-  <si>
-    <t>./DR/SBB0816_Norg2010/SBB0816Norg2010.shp</t>
-  </si>
-  <si>
-    <t>SBB0881_SBB_Ruinen_Havelterberg2013</t>
-  </si>
-  <si>
-    <t>./DR/SBB0881_SBB_Ruinen_Havelterberg2013/SBB0881_Ruinen_Havelterberg2013.shp</t>
-  </si>
-  <si>
-    <t>SBB0935_DrentsFrieseWold2015</t>
-  </si>
-  <si>
-    <t>./DR/SBB0935_DrentsFrieseWold2015/SBB0935DrentsFrieseWold2015.shp</t>
-  </si>
-  <si>
     <t>SBB0982_Wijster2017</t>
   </si>
   <si>
@@ -254,27 +170,12 @@
     <t>./DR/SBB1015_ HartvanDrenthe2018/SBB1015__HartvanDrenthe2018.shp</t>
   </si>
   <si>
-    <t>SBB1034_Dwingelderveld2017</t>
-  </si>
-  <si>
-    <t>./DR/SBB1034_Dwingelderveld2017/SBB1034_Dwingelderveld2017.shp</t>
-  </si>
-  <si>
-    <t>SBB1039_Drenthe2019</t>
-  </si>
-  <si>
-    <t>./DR/SBB1039_Drenthe2019/SBB1039_Drenthe_2019_Arnoud.shp</t>
-  </si>
-  <si>
     <t>SBB1471_DrentsFrieseWold2008</t>
   </si>
   <si>
     <t>./DR/SBB1471_DrentsFrieseWold2008/SBB1471_OVR_TBOs_verzamelkarteringDFW2009.shp</t>
   </si>
   <si>
-    <t>Drouwenerzand_2020</t>
-  </si>
-  <si>
     <t>NM_Mantingerbos_2015</t>
   </si>
   <si>
@@ -296,39 +197,12 @@
     <t>./FR/Ketliker_Skar/KetlikerSkar_2016/KetikerSkar2016.shp</t>
   </si>
   <si>
-    <t>Sneekermeergebied_2009</t>
-  </si>
-  <si>
-    <t>./FR/Sneekermeergebied/Vegetatiekartering 2009/Structuur/Vegetatiekartering.shp</t>
-  </si>
-  <si>
     <t>Tsjonger_Middenloop</t>
   </si>
   <si>
     <t>./FR/Tsjonger_Middenloop/934_Tsjonger_2015/bewerking boll/vegetatie2.shp</t>
   </si>
   <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>SBB ZWK 2010 0814_Tussen de Gasten 2010</t>
-  </si>
-  <si>
-    <t>./GR/SBB ZWK 2010/0814_Tussen de Gasten 2010/ZWK0814_2010.shp</t>
-  </si>
-  <si>
-    <t>SGL Hunzedal en Leekstermeer2021 Hunzedal</t>
-  </si>
-  <si>
-    <t>./GR/SGL Hunzedal en Leekstermeer2021/2021 Vegetatie- en plantensoortenkartering Hunzedal concept/gis/Vegetatiekartering_Hunzedal2021.shp</t>
-  </si>
-  <si>
-    <t>SGL Hunzedal en Leekstermeer2021 Leekstermeer 2021</t>
-  </si>
-  <si>
-    <t>./GR/SGL Hunzedal en Leekstermeer2021/2021 Vegetatiekartering Leekstermeer2021/GIS bestanden Onlanden 2021/Vegetatiekartering_Leekstermeer2021.shp</t>
-  </si>
-  <si>
     <t>VvN_col</t>
   </si>
   <si>
@@ -344,15 +218,9 @@
     <t>ElmID_col</t>
   </si>
   <si>
-    <t>Elmid</t>
-  </si>
-  <si>
     <t>ElmID</t>
   </si>
   <si>
-    <t>elmid</t>
-  </si>
-  <si>
     <t>Opmerking</t>
   </si>
   <si>
@@ -365,12 +233,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>datum</t>
-  </si>
-  <si>
-    <t>./DR Extra/2020_Drouwenerzand/HDL_Drouwenerzand_2020.shp</t>
-  </si>
-  <si>
     <t>OBJECTID</t>
   </si>
   <si>
@@ -452,15 +314,6 @@
     <t>VVN_dom volgt de tabel, maar CODE_VvN bestaat ook en bevat enkel de eerste van VVN_dom lijkt. De tabel hier lijkt ook te beschrijven als 2 vegtypen, niet als een complex</t>
   </si>
   <si>
-    <t>vlakken_EL</t>
-  </si>
-  <si>
-    <t>SbbType_Co</t>
-  </si>
-  <si>
-    <t>vlakken_Da</t>
-  </si>
-  <si>
     <t>Jaar</t>
   </si>
   <si>
@@ -491,75 +344,21 @@
     <t>PERC_VvN_1+PERC_VvN_2</t>
   </si>
   <si>
-    <t>In begeleidend document wordt vertaald naar zowel sbb als vvn</t>
-  </si>
-  <si>
     <t>SbbType</t>
   </si>
   <si>
-    <t>VVNCode</t>
-  </si>
-  <si>
-    <t>Datum_1</t>
-  </si>
-  <si>
-    <t>Vanalles mogelijk; 5 code_veg_# kolommen met bedekking, maar ook SbbType en SbbType2 (beide geen sbbtypen maar getallen), en ook VvN. Documentatie vertaald naar SBB en VvN en soms van 1 lokaal naar 2 SBB of VvN</t>
-  </si>
-  <si>
-    <t>opm</t>
-  </si>
-  <si>
-    <t>VVN</t>
-  </si>
-  <si>
-    <t>Enkel VvN en rVvN in de shape</t>
-  </si>
-  <si>
     <t>NUM_SRT</t>
   </si>
   <si>
     <t>Dubbel checken dat num_srt unique is. Enkel VvN in de shape</t>
   </si>
   <si>
-    <t>Mogelijk nog zo'n het is ssb1 en ssb2 als niet-complex</t>
-  </si>
-  <si>
     <t>CODE_VN</t>
   </si>
   <si>
     <t>Zowel SBB als V(v?)N in de shapes, geen voorkeur aangegeven in de begeleidende pdfs.</t>
   </si>
   <si>
-    <t>Datum klopt niet (is overal 1899-12-30)</t>
-  </si>
-  <si>
-    <t>SBBTYPE1+SBBTYPE2+SBBTYPE3</t>
-  </si>
-  <si>
-    <t>Er is ook een enkele SbbType kolom, maar aangezien er ook 3 LOCTYPE# kolommen zijn zijn complexen aannemelijk,</t>
-  </si>
-  <si>
-    <t>Element_Da</t>
-  </si>
-  <si>
-    <t>Element_Sb</t>
-  </si>
-  <si>
-    <t>SbbType_Co is ook een optie, maar deze lijkt de complexen niet meer te hebben</t>
-  </si>
-  <si>
-    <t>Enkel SBB aanwezig in shapes</t>
-  </si>
-  <si>
-    <t>Er is ook een kolom SbbType_Co met steeds enkel de eerste code</t>
-  </si>
-  <si>
-    <t>opmerking</t>
-  </si>
-  <si>
-    <t>In de documenten primair naar SBB vertaald. Er is ook een kolom Code_1 met steeds enkel de eerste in SbbType</t>
-  </si>
-  <si>
     <t>SBB_complx</t>
   </si>
   <si>
@@ -578,30 +377,9 @@
     <t>Document vertaalt naar VvN en SBB. Hier ook weer wordt 1 lokale soms vertaald naar 2 landelijke typen. Er zijn percentagekolommen (PERC1/PERC2) maar deze lijken bij locale typologie te horen want soms zijn er in VVN1/2/SBB1/2 complexen die in lokale typologie er niet zijn</t>
   </si>
   <si>
-    <t>In documentatie wordt primair naar SBB vertaald</t>
-  </si>
-  <si>
-    <t>SBB_type1+SBB_type2+SBB_type3+SBB_type4+SBB_type5</t>
-  </si>
-  <si>
-    <t>PERC1+PERC2+PERC3+PERC4+PERC5</t>
-  </si>
-  <si>
     <t>Er is ook een SbbType2 maar aangezin er geen meerdere lokale vegtype kolommen zijn heb ik enkel de eerste genomen</t>
   </si>
   <si>
-    <t>VvN1+VvN2+VvN3</t>
-  </si>
-  <si>
-    <t>P1+P2+P3</t>
-  </si>
-  <si>
-    <t>Documentatie vertaalt primair naar rVvN. Er is ook een SBB1/2/3 maar deze lijkt altijd None, ook bij geldige (r)VvN1/2/3. Er is nog een Opm2.</t>
-  </si>
-  <si>
-    <t>Opm1</t>
-  </si>
-  <si>
     <t>OPM_VELD</t>
   </si>
   <si>
@@ -654,9 +432,6 @@
   </si>
   <si>
     <t>Er is nog een VGTYP_VvN2 in de shapefile, maar hierover staat niets in de begeleidende bestanden. Moet dit multi_col_VvN zijn? Er is ook nog een CODE_VvN kolom gelijk lijkend aan VGTYPE_VvN. Er staan ook vraagtekens, moet hier nog iets speciaals mee?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>Er zijn kolommen VvN1/2/3 (hier lijken ook niet-vvn codes in te staan, zoals B33AAZ), maar maar 1 PERC1 kolom. Ook is er een enkele CODE_VvN kolom, die lijkt wel enkel VvN te hebben. OBJECTID is niet uniek dus die gebruiken we niet</t>
@@ -1079,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E69E7D8-E9C6-43A9-AE04-34DE441ECFDE}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,34 +883,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1149,22 +924,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1178,22 +953,22 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1207,34 +982,34 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1248,28 +1023,28 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1283,22 +1058,22 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1312,25 +1087,25 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1344,28 +1119,28 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1379,19 +1154,25 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1404,26 +1185,23 @@
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1436,23 +1214,26 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1466,25 +1247,25 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1498,25 +1279,22 @@
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1530,22 +1308,22 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>204</v>
+        <v>99</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1559,57 +1337,48 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1617,48 +1386,63 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1666,31 +1450,31 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>156</v>
+        <v>125</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,25 +1482,34 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>198</v>
+        <v>126</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1724,862 +1517,175 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>161</v>
+        <v>119</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G46" xr:uid="{3E69E7D8-E9C6-43A9-AE04-34DE441ECFDE}"/>
+  <autoFilter ref="G1:G25" xr:uid="{3E69E7D8-E9C6-43A9-AE04-34DE441ECFDE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/shapefilekarteringinfo.xlsx
+++ b/data/shapefilekarteringinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jordydelange\git\veg2hab\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mark\git\veg2hab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDA7FD-F20C-488F-A6E9-98A4475EF0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0BC7C-FDF6-4BEE-AA7E-AAF94B1DE421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
+    <workbookView xWindow="28680" yWindow="-3510" windowWidth="51840" windowHeight="21240" xr2:uid="{A4E3BD7C-813B-4E93-85DC-065BC75D0463}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>122</v>
